--- a/Microclimate Station Network.xlsx
+++ b/Microclimate Station Network.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Microclimate Station Network\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Microclimate Station Network\Plan\Microclimate-Station-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872541FA-7DB2-48DE-A943-7009ADAC08F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD95AC3-B3AB-4BF0-B90F-AB47F1E92429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>Xây dụng mạng Lưới(LoraMesh)</t>
   </si>
   <si>
-    <t>Kết hợp các module và cảm biến (dạng cấm dây) thực hiện truyền nhận</t>
-  </si>
-  <si>
     <t>THỰC HIỆN/ GIÁM SÁT</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>Kiểm thử và hoàn hành</t>
+  </si>
+  <si>
+    <t>Lập trình phần mềm app người sử dụng và web quản lý</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
                   <c:v>Xây dụng mạng Lưới(LoraMesh)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Kết hợp các module và cảm biến (dạng cấm dây) thực hiện truyền nhận</c:v>
+                  <c:v>Lập trình phần mềm app người sử dụng và web quản lý</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Giao tiếp với phần mềm (Dạng cấm dây)</c:v>
@@ -1253,7 +1253,7 @@
                   <c:v>Xây dụng mạng Lưới(LoraMesh)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Kết hợp các module và cảm biến (dạng cấm dây) thực hiện truyền nhận</c:v>
+                  <c:v>Lập trình phần mềm app người sử dụng và web quản lý</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Giao tiếp với phần mềm (Dạng cấm dây)</c:v>
@@ -1748,8 +1748,8 @@
   </sheetPr>
   <dimension ref="A1:AE994"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2647,7 +2647,7 @@
         <v>3.3</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>12</v>
@@ -2693,7 +2693,7 @@
         <v>3.4</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>12</v>
@@ -2739,7 +2739,7 @@
         <v>3.5</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>12</v>
@@ -2785,7 +2785,7 @@
         <v>3.6</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>12</v>
@@ -2831,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>12</v>
@@ -2877,7 +2877,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>12</v>
@@ -2923,7 +2923,7 @@
         <v>4.2</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>12</v>
